--- a/Tu Vung CSC.xlsx
+++ b/Tu Vung CSC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
   <si>
     <t>elevate</t>
   </si>
@@ -63,9 +63,6 @@
     <t>adj, v, n</t>
   </si>
   <si>
-    <t>kết hợp</t>
-  </si>
-  <si>
     <t>subsidiary</t>
   </si>
   <si>
@@ -151,6 +148,186 @@
   </si>
   <si>
     <t>học phí</t>
+  </si>
+  <si>
+    <t>người cộng tác, đồng minh</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cơ sở, cơ sở làm việc </t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>diện mạo</t>
+  </si>
+  <si>
+    <t>federal</t>
+  </si>
+  <si>
+    <t>adj, n</t>
+  </si>
+  <si>
+    <t>liên bang</t>
+  </si>
+  <si>
+    <t>federal agencies: các cơ quan liên bang</t>
+  </si>
+  <si>
+    <t>breach</t>
+  </si>
+  <si>
+    <t>vi phạm</t>
+  </si>
+  <si>
+    <t>malicious</t>
+  </si>
+  <si>
+    <t>độc hại</t>
+  </si>
+  <si>
+    <t>malicious code</t>
+  </si>
+  <si>
+    <t>reputation</t>
+  </si>
+  <si>
+    <t>uy tín</t>
+  </si>
+  <si>
+    <t>ré py tấy tion</t>
+  </si>
+  <si>
+    <t>tangible</t>
+  </si>
+  <si>
+    <t>hữu hình</t>
+  </si>
+  <si>
+    <t>intangible</t>
+  </si>
+  <si>
+    <t>tén giơ bô</t>
+  </si>
+  <si>
+    <t>implemetation</t>
+  </si>
+  <si>
+    <t>sự hoàn thành, sự hoàn tất</t>
+  </si>
+  <si>
+    <t>clinical</t>
+  </si>
+  <si>
+    <t>lâm sàn</t>
+  </si>
+  <si>
+    <t>jepardize</t>
+  </si>
+  <si>
+    <t>gây nguy hiểm</t>
+  </si>
+  <si>
+    <t>é lơ vây</t>
+  </si>
+  <si>
+    <t>compromise</t>
+  </si>
+  <si>
+    <t>làm nguy cho</t>
+  </si>
+  <si>
+    <t>manipulate</t>
+  </si>
+  <si>
+    <t>điều khiển</t>
+  </si>
+  <si>
+    <t>integrity</t>
+  </si>
+  <si>
+    <t>tính toàn vẹn</t>
+  </si>
+  <si>
+    <t>confidentiality</t>
+  </si>
+  <si>
+    <t>tính bảo mật</t>
+  </si>
+  <si>
+    <t>coordinate</t>
+  </si>
+  <si>
+    <t>phối hợp</t>
+  </si>
+  <si>
+    <t>inquiry</t>
+  </si>
+  <si>
+    <t>thắc mắc</t>
+  </si>
+  <si>
+    <t>violate</t>
+  </si>
+  <si>
+    <t>xâm phạm</t>
+  </si>
+  <si>
+    <t>chủ yếu</t>
+  </si>
+  <si>
+    <t>predominantly</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj, n </t>
+  </si>
+  <si>
+    <t>thương mại</t>
+  </si>
+  <si>
+    <t>law enforcement</t>
+  </si>
+  <si>
+    <t>văn bản thực thi pháp luật</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>dân sự</t>
+  </si>
+  <si>
+    <t>administrative</t>
+  </si>
+  <si>
+    <t>hành chính</t>
+  </si>
+  <si>
+    <t>incident</t>
+  </si>
+  <si>
+    <t>biến cố</t>
+  </si>
+  <si>
+    <t>vulnerabilities</t>
+  </si>
+  <si>
+    <t>lỗ hổng</t>
+  </si>
+  <si>
+    <t>khơm rơ maiz</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>nghiêm trọng</t>
   </si>
 </sst>
 </file>
@@ -546,18 +723,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -570,7 +747,9 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -628,175 +807,474 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Tu Vung CSC.xlsx
+++ b/Tu Vung CSC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="215">
   <si>
     <t>elevate</t>
   </si>
@@ -328,6 +328,339 @@
   </si>
   <si>
     <t>nghiêm trọng</t>
+  </si>
+  <si>
+    <t>secure, securely</t>
+  </si>
+  <si>
+    <t>adj, adv</t>
+  </si>
+  <si>
+    <t>an toàn</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>nhạy cảm</t>
+  </si>
+  <si>
+    <t>sensitivity level</t>
+  </si>
+  <si>
+    <t>motive</t>
+  </si>
+  <si>
+    <t>động cơ</t>
+  </si>
+  <si>
+    <t>psychological</t>
+  </si>
+  <si>
+    <t>thuộc về tâm lý</t>
+  </si>
+  <si>
+    <t>xai cô ló giơ cô</t>
+  </si>
+  <si>
+    <t>legitimate</t>
+  </si>
+  <si>
+    <t>hợp pháp</t>
+  </si>
+  <si>
+    <t>lí giơ đi mẹt</t>
+  </si>
+  <si>
+    <t>portable</t>
+  </si>
+  <si>
+    <t>di động, có thể mang đi</t>
+  </si>
+  <si>
+    <t>protable devices</t>
+  </si>
+  <si>
+    <t>suspicious</t>
+  </si>
+  <si>
+    <t>khả nghi</t>
+  </si>
+  <si>
+    <t>disciplinary</t>
+  </si>
+  <si>
+    <t>tính kỷ luật</t>
+  </si>
+  <si>
+    <t>dis cơ plơ nơ ry</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>biện pháp</t>
+  </si>
+  <si>
+    <t>mé giơ</t>
+  </si>
+  <si>
+    <t>security measure</t>
+  </si>
+  <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>sắp xếp</t>
+  </si>
+  <si>
+    <t>should be aligned</t>
+  </si>
+  <si>
+    <t>shred</t>
+  </si>
+  <si>
+    <t>băm nhỏ</t>
+  </si>
+  <si>
+    <t>remarkable</t>
+  </si>
+  <si>
+    <t>đáng chú ý</t>
+  </si>
+  <si>
+    <t>ethics</t>
+  </si>
+  <si>
+    <t>vấn đề đạo đức</t>
+  </si>
+  <si>
+    <t>é thicsssss</t>
+  </si>
+  <si>
+    <t>compliance</t>
+  </si>
+  <si>
+    <t>sự tuân thủ</t>
+  </si>
+  <si>
+    <t>aspiration</t>
+  </si>
+  <si>
+    <t>nguyện vọng</t>
+  </si>
+  <si>
+    <t>as pơ rấy tion</t>
+  </si>
+  <si>
+    <t>stimulate</t>
+  </si>
+  <si>
+    <t>kích thích</t>
+  </si>
+  <si>
+    <t>integity</t>
+  </si>
+  <si>
+    <t>chính trực, ngay thẳng</t>
+  </si>
+  <si>
+    <t>dilemmas</t>
+  </si>
+  <si>
+    <t>tình huống khó xử</t>
+  </si>
+  <si>
+    <t>accountable</t>
+  </si>
+  <si>
+    <t>chịu trách nhiệm</t>
+  </si>
+  <si>
+    <t>tolerance</t>
+  </si>
+  <si>
+    <t>lòng khoan dung</t>
+  </si>
+  <si>
+    <t>substance</t>
+  </si>
+  <si>
+    <t>vật chất</t>
+  </si>
+  <si>
+    <t>abuse</t>
+  </si>
+  <si>
+    <t>lạm dụng</t>
+  </si>
+  <si>
+    <t>engage in</t>
+  </si>
+  <si>
+    <t>tham gia vào</t>
+  </si>
+  <si>
+    <t>violence</t>
+  </si>
+  <si>
+    <t>bạo lực</t>
+  </si>
+  <si>
+    <t>questionable</t>
+  </si>
+  <si>
+    <t>trang web đáng ngờ</t>
+  </si>
+  <si>
+    <t>restraint</t>
+  </si>
+  <si>
+    <t>sự hạn chế</t>
+  </si>
+  <si>
+    <t>reveal</t>
+  </si>
+  <si>
+    <t>tiết lộ</t>
+  </si>
+  <si>
+    <t>proprietary</t>
+  </si>
+  <si>
+    <t>độc quyền</t>
+  </si>
+  <si>
+    <t>speculation</t>
+  </si>
+  <si>
+    <t>sự suy đoán</t>
+  </si>
+  <si>
+    <t>rumor</t>
+  </si>
+  <si>
+    <t>tin đồn</t>
+  </si>
+  <si>
+    <t>confrontation</t>
+  </si>
+  <si>
+    <t>sự đối đầu</t>
+  </si>
+  <si>
+    <t>disclose</t>
+  </si>
+  <si>
+    <t>disclosure</t>
+  </si>
+  <si>
+    <t>sự tiết lộ</t>
+  </si>
+  <si>
+    <t>intellectual</t>
+  </si>
+  <si>
+    <t>trí tuệ</t>
+  </si>
+  <si>
+    <t>intellectual property</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>đám đông, báo chí</t>
+  </si>
+  <si>
+    <t>regulation</t>
+  </si>
+  <si>
+    <t>quy định</t>
+  </si>
+  <si>
+    <t>strive</t>
+  </si>
+  <si>
+    <t>phấn đấu</t>
+  </si>
+  <si>
+    <t>retetion</t>
+  </si>
+  <si>
+    <t>giữ lại</t>
+  </si>
+  <si>
+    <t>disposal</t>
+  </si>
+  <si>
+    <t>hủy bỏ</t>
+  </si>
+  <si>
+    <t>tuân thủ</t>
+  </si>
+  <si>
+    <t>comply with</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v,n </t>
+  </si>
+  <si>
+    <t>kiểm tra</t>
+  </si>
+  <si>
+    <t>transparency</t>
+  </si>
+  <si>
+    <t>minh bạch</t>
+  </si>
+  <si>
+    <t>take bribe</t>
+  </si>
+  <si>
+    <t>đưa hối lộ</t>
+  </si>
+  <si>
+    <t>sophisticated</t>
+  </si>
+  <si>
+    <t>tinh vi</t>
+  </si>
+  <si>
+    <t>embargo</t>
+  </si>
+  <si>
+    <t>lệnh cấm vận</t>
+  </si>
+  <si>
+    <t>restrict</t>
+  </si>
+  <si>
+    <t>hạn chế</t>
+  </si>
+  <si>
+    <t>ri strict</t>
+  </si>
+  <si>
+    <t>money laundering</t>
+  </si>
+  <si>
+    <t>sự rửa tiền</t>
+  </si>
+  <si>
+    <t>retaliation</t>
+  </si>
+  <si>
+    <t>sự trả thù</t>
+  </si>
+  <si>
+    <t>abide by</t>
+  </si>
+  <si>
+    <t>tuân theo</t>
   </si>
 </sst>
 </file>
@@ -723,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +1070,7 @@
     <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -750,8 +1083,9 @@
       <c r="D1" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -762,8 +1096,9 @@
         <v>3</v>
       </c>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -774,8 +1109,9 @@
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -786,8 +1122,9 @@
         <v>7</v>
       </c>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -798,8 +1135,9 @@
         <v>12</v>
       </c>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -810,8 +1148,9 @@
         <v>44</v>
       </c>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -822,8 +1161,9 @@
         <v>16</v>
       </c>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -834,8 +1174,9 @@
         <v>18</v>
       </c>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -846,8 +1187,9 @@
         <v>20</v>
       </c>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -858,8 +1200,9 @@
         <v>22</v>
       </c>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -872,8 +1215,9 @@
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -884,8 +1228,9 @@
         <v>24</v>
       </c>
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -896,8 +1241,9 @@
         <v>28</v>
       </c>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -908,8 +1254,9 @@
         <v>30</v>
       </c>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -920,8 +1267,9 @@
         <v>32</v>
       </c>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -932,6 +1280,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -944,6 +1293,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -958,6 +1308,7 @@
       <c r="D18" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -970,6 +1321,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -982,6 +1334,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -994,85 +1347,93 @@
         <v>46</v>
       </c>
       <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1080,201 +1441,879 @@
       <c r="A28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="5" t="s">
         <v>103</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
